--- a/Energy community potential model_calibration/_EC_summary.xlsx
+++ b/Energy community potential model_calibration/_EC_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEA00A-9BB3-466F-9E79-55C3E22E90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B565951-09F6-42D2-9F17-6511B2E221E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12675" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="12576" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
@@ -42506,7 +42506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF28F-863F-404A-8632-A7586928913E}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -43593,8 +43593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94C2C-27D9-49D2-80F1-03A3F1312A67}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43647,7 +43647,6 @@
         <v>2009</v>
       </c>
       <c r="B2" s="2">
-        <f>summary_statistics!M2*$L$5</f>
         <v>17</v>
       </c>
       <c r="C2" s="2">
@@ -43655,7 +43654,6 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>summary_statistics!O2*$L$5</f>
         <v>20</v>
       </c>
       <c r="E2" s="2">
@@ -43685,7 +43683,6 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2">
-        <f>summary_statistics!M3*$L$5</f>
         <v>22</v>
       </c>
       <c r="C3" s="2">
@@ -43693,7 +43690,6 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>summary_statistics!O3*$L$5</f>
         <v>21</v>
       </c>
       <c r="E3" s="2">
@@ -43723,7 +43719,6 @@
         <v>2011</v>
       </c>
       <c r="B4" s="2">
-        <f>summary_statistics!M4*$L$5</f>
         <v>32</v>
       </c>
       <c r="C4" s="2">
@@ -43731,7 +43726,6 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>summary_statistics!O4*$L$5</f>
         <v>23</v>
       </c>
       <c r="E4" s="2">
@@ -43761,7 +43755,6 @@
         <v>2012</v>
       </c>
       <c r="B5" s="2">
-        <f>summary_statistics!M5*$L$5</f>
         <v>55</v>
       </c>
       <c r="C5" s="2">
@@ -43769,8 +43762,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>summary_statistics!O5*$L$5</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <f>summary_statistics!P5*$L$5</f>
@@ -43805,7 +43797,6 @@
         <v>2013</v>
       </c>
       <c r="B6" s="2">
-        <f>summary_statistics!M6*$L$5</f>
         <v>108</v>
       </c>
       <c r="C6" s="2">
@@ -43813,8 +43804,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>summary_statistics!O6*$L$5</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <f>summary_statistics!P6*$L$5</f>
@@ -43843,7 +43833,6 @@
         <v>2014</v>
       </c>
       <c r="B7" s="2">
-        <f>summary_statistics!M7*$L$5</f>
         <v>155</v>
       </c>
       <c r="C7" s="2">
@@ -43851,8 +43840,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f>summary_statistics!O7*$L$5</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <f>summary_statistics!P7*$L$5</f>
@@ -43881,7 +43869,6 @@
         <v>2015</v>
       </c>
       <c r="B8" s="2">
-        <f>summary_statistics!M8*$L$5</f>
         <v>206</v>
       </c>
       <c r="C8" s="2">
@@ -43889,8 +43876,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>summary_statistics!O8*$L$5</f>
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
         <f>summary_statistics!P8*$L$5</f>
@@ -43919,7 +43905,6 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2">
-        <f>summary_statistics!M9*$L$5</f>
         <v>258</v>
       </c>
       <c r="C9" s="2">
@@ -43927,8 +43912,7 @@
         <v>51000</v>
       </c>
       <c r="D9" s="2">
-        <f>summary_statistics!O9*$L$5</f>
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2">
         <f>summary_statistics!P9*$L$5</f>
@@ -43957,7 +43941,6 @@
         <v>2017</v>
       </c>
       <c r="B10" s="2">
-        <f>summary_statistics!M10*$L$5</f>
         <v>310</v>
       </c>
       <c r="C10" s="2">
@@ -43965,8 +43948,7 @@
         <v>63000</v>
       </c>
       <c r="D10" s="2">
-        <f>summary_statistics!O10*$L$5</f>
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E10" s="2">
         <f>summary_statistics!P10*$L$5</f>
@@ -43995,7 +43977,6 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2">
-        <f>summary_statistics!M11*$L$5</f>
         <v>382</v>
       </c>
       <c r="C11" s="2">
@@ -44003,8 +43984,7 @@
         <v>68000</v>
       </c>
       <c r="D11" s="2">
-        <f>summary_statistics!O11*$L$5</f>
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E11" s="2">
         <f>summary_statistics!P11*$L$5</f>
@@ -44033,7 +44013,6 @@
         <v>2019</v>
       </c>
       <c r="B12" s="2">
-        <f>summary_statistics!M12*$L$5</f>
         <v>448</v>
       </c>
       <c r="C12" s="2">
@@ -44041,8 +44020,7 @@
         <v>87760</v>
       </c>
       <c r="D12" s="2">
-        <f>summary_statistics!O12*$L$5</f>
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E12" s="2">
         <f>summary_statistics!P12*$L$5</f>
@@ -44071,7 +44049,6 @@
         <v>2020</v>
       </c>
       <c r="B13" s="2">
-        <f>summary_statistics!M13*$L$5</f>
         <v>501</v>
       </c>
       <c r="C13" s="2">
@@ -44079,8 +44056,7 @@
         <v>96331</v>
       </c>
       <c r="D13" s="2">
-        <f>summary_statistics!O13*$L$5</f>
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E13" s="2">
         <f>summary_statistics!P13*$L$5</f>
@@ -44109,7 +44085,6 @@
         <v>2021</v>
       </c>
       <c r="B14" s="2">
-        <f>summary_statistics!M14*$L$5</f>
         <v>541</v>
       </c>
       <c r="C14" s="2">
@@ -44117,8 +44092,7 @@
         <v>111476</v>
       </c>
       <c r="D14" s="2">
-        <f>summary_statistics!O14*$L$5</f>
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="E14" s="2">
         <f>summary_statistics!P14*$L$5</f>
@@ -44147,7 +44121,6 @@
         <v>2022</v>
       </c>
       <c r="B15" s="2">
-        <f>summary_statistics!M15*$L$5</f>
         <v>564</v>
       </c>
       <c r="C15" s="2">
@@ -44155,8 +44128,7 @@
         <v>120214</v>
       </c>
       <c r="D15" s="2">
-        <f>summary_statistics!O15*$L$5</f>
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="E15" s="2">
         <f>summary_statistics!P15*$L$5</f>
@@ -44185,7 +44157,6 @@
         <v>2023</v>
       </c>
       <c r="B16" s="2">
-        <f>summary_statistics!M16*$L$5</f>
         <v>575</v>
       </c>
       <c r="C16" s="2">
@@ -44193,8 +44164,7 @@
         <v>131180</v>
       </c>
       <c r="D16" s="2">
-        <f>summary_statistics!O16*$L$5</f>
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="E16" s="2">
         <f>summary_statistics!P16*$L$5</f>
